--- a/Programmer Shield/Bill of Materials/pshield-bom-v1-131006.xlsx
+++ b/Programmer Shield/Bill of Materials/pshield-bom-v1-131006.xlsx
@@ -1135,7 +1135,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <f ca="1">TODAY()</f>
-        <v>41553</v>
+        <v>41554</v>
       </c>
     </row>
     <row r="4" spans="2:11">
